--- a/Ergebnisse.xlsx
+++ b/Ergebnisse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Desktop\Masterarbeit_V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558700B4-9290-4E17-A4DE-8753E1F7CB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB7C5EC-FA35-4EF7-B41D-4FD74E019177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{8BD8ECD7-0FEF-448D-8D74-18D5F6F6DC6B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" firstSheet="3" activeTab="3" xr2:uid="{8BD8ECD7-0FEF-448D-8D74-18D5F6F6DC6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>Thema</t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>Antwort</t>
+  </si>
+  <si>
+    <t>ESRS MDR-P §65a - Beschreibung der wichtigsten Inhalte der Strategie, einschließlich ihrer allgemeinen Ziele, und der wesentlichen Auswirkungen, Risiken oder Chancen, auf die sich die Strategie bezieht, sowie des Überwachungsprozesses</t>
+  </si>
+  <si>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>ESRS MDR-P §65a</t>
+  </si>
+  <si>
+    <t>Beschreibung der wichtigsten Inhalte der Strategie, einschließlich ihrer allgemeinen Ziele, und der wesentlichen Auswirkungen, Risiken oder Chancen, auf die sich die Strategie bezieht, sowie des Überwachungsprozesses</t>
   </si>
 </sst>
 </file>
@@ -687,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4714BA4-6498-441B-84F4-0B00006560D3}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -951,12 +963,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8168B3BB-38DF-4B0A-88C1-73A1946E372F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="194.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="55.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Ergebnisse.xlsx
+++ b/Ergebnisse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Desktop\Masterarbeit_V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/044f60d434003980/Desktop/Masterarbeit_V1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB7C5EC-FA35-4EF7-B41D-4FD74E019177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{EFB7C5EC-FA35-4EF7-B41D-4FD74E019177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F2D1DD3-0A1C-4CAB-B22C-B4F342C7FE87}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" firstSheet="3" activeTab="3" xr2:uid="{8BD8ECD7-0FEF-448D-8D74-18D5F6F6DC6B}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{8BD8ECD7-0FEF-448D-8D74-18D5F6F6DC6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>Thema</t>
   </si>
@@ -234,23 +234,71 @@
     <t>Antwort</t>
   </si>
   <si>
-    <t>ESRS MDR-P §65a - Beschreibung der wichtigsten Inhalte der Strategie, einschließlich ihrer allgemeinen Ziele, und der wesentlichen Auswirkungen, Risiken oder Chancen, auf die sich die Strategie bezieht, sowie des Überwachungsprozesses</t>
-  </si>
-  <si>
-    <t>Bezeichnung</t>
-  </si>
-  <si>
     <t>ESRS MDR-P §65a</t>
   </si>
   <si>
-    <t>Beschreibung der wichtigsten Inhalte der Strategie, einschließlich ihrer allgemeinen Ziele, und der wesentlichen Auswirkungen, Risiken oder Chancen, auf die sich die Strategie bezieht, sowie des Überwachungsprozesses</t>
+    <t>ESRS MDR-P §65b</t>
+  </si>
+  <si>
+    <t>ESRS MDR-A §68b</t>
+  </si>
+  <si>
+    <t>ESRS MDR-A §68d</t>
+  </si>
+  <si>
+    <t>ESRS MDR-A §69b</t>
+  </si>
+  <si>
+    <t>ESRS MDR-A §69c</t>
+  </si>
+  <si>
+    <t>ESRS MDR-M §75</t>
+  </si>
+  <si>
+    <t>ESRS MDR-T §80</t>
+  </si>
+  <si>
+    <t>Aktuelle, dem Aktionsplan zugewiesene Finanzmittel (CapEx)</t>
+  </si>
+  <si>
+    <t>Aktuelle, dem Aktionsplan zugewiesene Finanzmittel (OpEx)</t>
+  </si>
+  <si>
+    <t>Betrag der künftig, dem Aktionsplan zugewiesenen finanziellen Mittel (CapEx)</t>
+  </si>
+  <si>
+    <t>Betrag der künftig, dem Aktionsplan zugewiesenen finanziellen Mittel (OpEx)</t>
+  </si>
+  <si>
+    <t>Beschreibung der wichtigsten Inhalte der Strategie, einschließlich ihrer allgemeinen Ziele, und der wesentlichen Auswirkungen, Risiken oder Chancen, 
+auf die sich die Strategie bezieht, sowie des Überwachungsprozesses</t>
+  </si>
+  <si>
+    <t>Eine Beschreibung des Anwendungsbereichs der Strategie (oder der Ausnahmen) in Bezug auf Aktivitäten, die vor- und/oder nachgelagerte Wertschöpfungskette, 
+geografische Gebiete und gegebenenfalls betroffene Interessengruppen</t>
+  </si>
+  <si>
+    <t>Beschreibung des Umfangs der wichtigsten Maßnahmen in Bezug auf Aktivitäten, die Geografie der vor- und/oder nachgelagerten Wertschöpfungskette und
+ gegebenenfalls betroffene Interessengruppen</t>
+  </si>
+  <si>
+    <t>Die wichtigsten Maßnahmen (zusammen mit ihren Ergebnissen), die ergriffen wurden, um Abhilfe für diejenigen zu schaffen, die durch tatsächliche
+wesentliche Auswirkungen geschädigt wurden</t>
+  </si>
+  <si>
+    <t>Das Unternehmen gibt alle Parameter an, die es verwendet, um die Leistung und Wirksamkeit in Bezug auf wesentliche 
+Auswirkungen, Risiken oder Chancen zu beurteilen</t>
+  </si>
+  <si>
+    <t>Das Unternehmen muss die messbaren, ergebnisorientierten und terminierten Ziele in Bezug auf wesentliche Nachhaltigkeitsaspekte angeben, 
+die es zur Bewertung der Fortschritte festgelegt hat. Für jedes Ziel enthält die Angabe folgende Informationen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,16 +306,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -275,20 +337,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -321,12 +458,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AFBF4C34-E7B0-4AFB-B0AC-42FFED279E07}" name="Tabelle2" displayName="Tabelle2" ref="A1:C30" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AFBF4C34-E7B0-4AFB-B0AC-42FFED279E07}" name="Tabelle2" displayName="Tabelle2" ref="A1:C30" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:C30" xr:uid="{AFBF4C34-E7B0-4AFB-B0AC-42FFED279E07}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1947EA98-358B-4AEE-A0D6-B76B065FCCEA}" name="Referenz" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{86D7F731-1EEA-4B47-BA1B-1B3672510553}" name="Beschreibung" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{6BCAE759-2D3A-4D5F-A51F-A586FBD357A6}" name="Antwort"/>
+    <tableColumn id="1" xr3:uid="{1947EA98-358B-4AEE-A0D6-B76B065FCCEA}" name="Referenz" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{86D7F731-1EEA-4B47-BA1B-1B3672510553}" name="Beschreibung" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{6BCAE759-2D3A-4D5F-A51F-A586FBD357A6}" name="Antwort" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C3F6D296-244D-4616-BD3A-118063321640}" name="Tabelle5" displayName="Tabelle5" ref="A1:C11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A1:C11" xr:uid="{C3F6D296-244D-4616-BD3A-118063321640}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{373ED837-40D0-44FE-BD8D-01D825D61F81}" name="Referenz" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{CC41686E-165A-4A7B-80B2-1DBE0F5DDFC0}" name="Beschreibung" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{33A78526-5CDD-4EAD-B5A0-3DC9FA63831E}" name="Antwort" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -699,25 +848,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4714BA4-6498-441B-84F4-0B00006560D3}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="115.90625" defaultRowHeight="70" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="126.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="135.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="126.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="126.453125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="115.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -963,43 +1113,125 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8168B3BB-38DF-4B0A-88C1-73A1946E372F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="194.36328125" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="55.36328125" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="125.54296875" customWidth="1"/>
+    <col min="3" max="3" width="126.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1007,7 +1239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B62E8E-4A31-4997-B1E1-1C4CE4D0DCD3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>

--- a/Ergebnisse.xlsx
+++ b/Ergebnisse.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/044f60d434003980/Desktop/Masterarbeit_V1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{EFB7C5EC-FA35-4EF7-B41D-4FD74E019177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F2D1DD3-0A1C-4CAB-B22C-B4F342C7FE87}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="13_ncr:1_{EFB7C5EC-FA35-4EF7-B41D-4FD74E019177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B7F91D6-1145-4A0A-AB5F-225DD566CCB1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{8BD8ECD7-0FEF-448D-8D74-18D5F6F6DC6B}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{8BD8ECD7-0FEF-448D-8D74-18D5F6F6DC6B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Übersicht" sheetId="6" r:id="rId1"/>
+    <sheet name="Longlist" sheetId="9" r:id="rId1"/>
     <sheet name="Shortlist" sheetId="1" r:id="rId2"/>
     <sheet name="Allgemeine Angaben" sheetId="2" r:id="rId3"/>
     <sheet name="Mindestangaben" sheetId="3" r:id="rId4"/>
-    <sheet name="Stakeholder" sheetId="4" r:id="rId5"/>
+    <sheet name="Interne Nachhaltigkeitspunkte" sheetId="8" r:id="rId5"/>
+    <sheet name="Externe Nachhaltigkeitspunkte" sheetId="7" r:id="rId6"/>
+    <sheet name="Stakeholder" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
   <si>
     <t>Thema</t>
   </si>
@@ -292,6 +294,48 @@
   <si>
     <t>Das Unternehmen muss die messbaren, ergebnisorientierten und terminierten Ziele in Bezug auf wesentliche Nachhaltigkeitsaspekte angeben, 
 die es zur Bewertung der Fortschritte festgelegt hat. Für jedes Ziel enthält die Angabe folgende Informationen</t>
+  </si>
+  <si>
+    <t>Platzierung</t>
+  </si>
+  <si>
+    <t>Gruppe</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Stakeholder Ranking</t>
+  </si>
+  <si>
+    <t>In Bewertung aufgenommene Stakeholder</t>
+  </si>
+  <si>
+    <t>Stakeholder Bew Auswirkung</t>
+  </si>
+  <si>
+    <t>Stakeholder Bew Finanzen</t>
+  </si>
+  <si>
+    <t>Stakeholder Gesamtbew</t>
+  </si>
+  <si>
+    <t>Stakeholder</t>
+  </si>
+  <si>
+    <t>Quelle</t>
+  </si>
+  <si>
+    <t>Score Finanzen</t>
+  </si>
+  <si>
+    <t>Score Auswirkung</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Bewertet</t>
   </si>
 </sst>
 </file>
@@ -329,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -346,11 +390,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -361,22 +522,151 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="33">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -404,33 +694,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color theme="1"/>
-        </top>
-      </border>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,36 +722,106 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0EAA9B70-2656-4F27-AABC-274E3FADFEE0}" name="Tabelle3" displayName="Tabelle3" ref="A1:C323" totalsRowShown="0">
-  <autoFilter ref="A1:C323" xr:uid="{0EAA9B70-2656-4F27-AABC-274E3FADFEE0}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0B695F56-587F-41F9-91D3-CCA8916BC1E1}" name="Thema"/>
-    <tableColumn id="2" xr3:uid="{9460E50E-05FB-46DF-90D4-690FFB6C785B}" name="Unterthema"/>
-    <tableColumn id="3" xr3:uid="{D8072684-13EE-402C-854B-ACFF74919084}" name="Unter-Unterthema"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BFEBBE91-E19A-4EB6-B17A-4E7897839115}" name="Tabelle8" displayName="Tabelle8" ref="A1:E400" totalsRowShown="0">
+  <autoFilter ref="A1:E400" xr:uid="{BFEBBE91-E19A-4EB6-B17A-4E7897839115}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5B295DE8-774D-41C0-B60D-796C32C38A6B}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{647234AC-2A55-4344-AD4A-68426CA397DA}" name="Thema" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{335767CA-70EE-41E3-ACC1-ED71A5C7EB22}" name="Unterthema" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{A5ECB99F-0526-4C8F-8DB7-89C826C6362C}" name="Unter-Unterthema" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{4F1928F7-B4FC-42C0-8C1C-F8A77A3A376B}" name="Bewertet" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AFBF4C34-E7B0-4AFB-B0AC-42FFED279E07}" name="Tabelle2" displayName="Tabelle2" ref="A1:C30" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:C30" xr:uid="{AFBF4C34-E7B0-4AFB-B0AC-42FFED279E07}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1947EA98-358B-4AEE-A0D6-B76B065FCCEA}" name="Referenz" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{86D7F731-1EEA-4B47-BA1B-1B3672510553}" name="Beschreibung" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{6BCAE759-2D3A-4D5F-A51F-A586FBD357A6}" name="Antwort" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0EAA9B70-2656-4F27-AABC-274E3FADFEE0}" name="Tabelle3" displayName="Tabelle3" ref="A1:E323" totalsRowShown="0">
+  <autoFilter ref="A1:E323" xr:uid="{0EAA9B70-2656-4F27-AABC-274E3FADFEE0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0B695F56-587F-41F9-91D3-CCA8916BC1E1}" name="Thema" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{9460E50E-05FB-46DF-90D4-690FFB6C785B}" name="Unterthema" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D8072684-13EE-402C-854B-ACFF74919084}" name="Unter-Unterthema" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{04B5FB97-4AD3-41B6-9F4E-185415DC292D}" name="Score Finanzen" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{F712CE96-8559-4F7C-BE45-73017908646F}" name="Score Auswirkung" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C3F6D296-244D-4616-BD3A-118063321640}" name="Tabelle5" displayName="Tabelle5" ref="A1:C11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AFBF4C34-E7B0-4AFB-B0AC-42FFED279E07}" name="Tabelle2" displayName="Tabelle2" ref="A1:C30" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:C30" xr:uid="{AFBF4C34-E7B0-4AFB-B0AC-42FFED279E07}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1947EA98-358B-4AEE-A0D6-B76B065FCCEA}" name="Referenz" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{86D7F731-1EEA-4B47-BA1B-1B3672510553}" name="Beschreibung" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{6BCAE759-2D3A-4D5F-A51F-A586FBD357A6}" name="Antwort" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C3F6D296-244D-4616-BD3A-118063321640}" name="Tabelle5" displayName="Tabelle5" ref="A1:C11" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
   <autoFilter ref="A1:C11" xr:uid="{C3F6D296-244D-4616-BD3A-118063321640}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{373ED837-40D0-44FE-BD8D-01D825D61F81}" name="Referenz" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{CC41686E-165A-4A7B-80B2-1DBE0F5DDFC0}" name="Beschreibung" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{33A78526-5CDD-4EAD-B5A0-3DC9FA63831E}" name="Antwort" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{373ED837-40D0-44FE-BD8D-01D825D61F81}" name="Referenz" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{CC41686E-165A-4A7B-80B2-1DBE0F5DDFC0}" name="Beschreibung" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{33A78526-5CDD-4EAD-B5A0-3DC9FA63831E}" name="Antwort" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EFC192B4-FB39-4B0F-A1C4-7D4C9B8BE55D}" name="Tabelle4" displayName="Tabelle4" ref="A1:C200" totalsRowShown="0">
+  <autoFilter ref="A1:C200" xr:uid="{EFC192B4-FB39-4B0F-A1C4-7D4C9B8BE55D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5BA46F8F-1DF1-4A49-91E7-329B46AE4831}" name="Thema"/>
+    <tableColumn id="2" xr3:uid="{37CF0CFF-9A70-4EF4-815F-D2BFE18F5AA6}" name="Unterthema"/>
+    <tableColumn id="3" xr3:uid="{328FEC23-56DD-413F-85A1-140E0CDE3A67}" name="Unter-Unterthema"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DEC112FF-D66A-4036-A57F-02906C91A87F}" name="Tabelle7" displayName="Tabelle7" ref="A1:I200" totalsRowShown="0">
+  <autoFilter ref="A1:I200" xr:uid="{DEC112FF-D66A-4036-A57F-02906C91A87F}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{67E9FA2D-1D5E-4114-BDB2-6C8192BE5E0D}" name="Platzierung"/>
+    <tableColumn id="2" xr3:uid="{BD8167E2-3777-428F-A038-E3AB4E7C638A}" name="Thema"/>
+    <tableColumn id="3" xr3:uid="{26F4F1C8-D9B6-49DF-8ACE-211D20E4D29D}" name="Unterthema"/>
+    <tableColumn id="4" xr3:uid="{C6FC423C-BACF-4622-9AC7-08FA6B662642}" name="Unter-Unterthema"/>
+    <tableColumn id="5" xr3:uid="{5A849CF4-CEC3-4F7B-BC9A-B6F861D63818}" name="Stakeholder Bew Auswirkung"/>
+    <tableColumn id="6" xr3:uid="{A0487759-CD76-498A-8BA6-A31B821ECF01}" name="Stakeholder Bew Finanzen"/>
+    <tableColumn id="7" xr3:uid="{71F1FB68-9C94-4E0F-B112-DB52FD2CF496}" name="Stakeholder Gesamtbew"/>
+    <tableColumn id="8" xr3:uid="{447559BF-4D5B-424F-84A2-FA25B5E4ECFE}" name="Stakeholder"/>
+    <tableColumn id="9" xr3:uid="{7BDAF2ED-9504-42E3-B567-D3309C4805EF}" name="Quelle"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E48A5E1D-1D42-4F41-847A-3BC300CA9EFD}" name="Tabelle1" displayName="Tabelle1" ref="A2:C50" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A2:C50" xr:uid="{E48A5E1D-1D42-4F41-847A-3BC300CA9EFD}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F5920264-4D4E-41E5-B815-59D832F4D3F1}" name="Platzierung" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{F9BEF5DD-C415-4FF9-96FF-8B251ADC2F23}" name="Gruppe" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{872F002F-6728-4E23-91CE-84F32BEFC902}" name="Score" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5B43F029-6526-4B29-9D27-DA6628DB89F7}" name="Tabelle6" displayName="Tabelle6" ref="E2:G50" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="E2:G50" xr:uid="{5B43F029-6526-4B29-9D27-DA6628DB89F7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C41B1320-9A8C-4439-A4E5-B485D1DA20AD}" name="Platzierung" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{B99AF239-EC5A-4C10-937B-D44D28DDB9C7}" name="Gruppe" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{A9EF4F0C-FD31-4211-82CB-8AFA2D28CCA3}" name="Score" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -797,43 +1143,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49327E3F-076F-4F69-9BD3-33E92F8DC0CC}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028AEEFC-E5DF-4357-98DB-65669D351EBB}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" style="6" customWidth="1"/>
+    <col min="2" max="4" width="70.6328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F70B8C5-1495-4C99-9E8C-578225CA788B}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.08984375" customWidth="1"/>
-    <col min="2" max="2" width="42.54296875" customWidth="1"/>
-    <col min="3" max="3" width="38.6328125" customWidth="1"/>
+    <col min="1" max="3" width="50.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -849,14 +1227,14 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="115.90625" defaultRowHeight="70" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.6328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="126.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="126.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="126.453125" style="6" customWidth="1"/>
     <col min="4" max="16384" width="115.90625" style="2"/>
   </cols>
   <sheetData>
@@ -867,7 +1245,7 @@
       <c r="B1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1115,15 +1493,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8168B3BB-38DF-4B0A-88C1-73A1946E372F}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.54296875" customWidth="1"/>
     <col min="2" max="2" width="125.54296875" customWidth="1"/>
-    <col min="3" max="3" width="126.08984375" customWidth="1"/>
+    <col min="3" max="3" width="126.08984375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1133,7 +1511,7 @@
       <c r="B1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1144,7 +1522,6 @@
       <c r="B2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1153,7 +1530,6 @@
       <c r="B3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -1162,7 +1538,6 @@
       <c r="B4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -1171,7 +1546,6 @@
       <c r="B5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -1180,7 +1554,6 @@
       <c r="B6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -1189,7 +1562,6 @@
       <c r="B7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -1198,7 +1570,6 @@
       <c r="B8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -1207,7 +1578,6 @@
       <c r="B9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -1216,7 +1586,6 @@
       <c r="B10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -1225,7 +1594,6 @@
       <c r="B11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1236,15 +1604,539 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B62E8E-4A31-4997-B1E1-1C4CE4D0DCD3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75C0EAA-1B7A-4CB2-BF33-996AC87C16EE}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="50.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8759344-6114-4ECC-8592-C429027BC1DA}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.81640625" customWidth="1"/>
+    <col min="9" max="9" width="24.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B62E8E-4A31-4997-B1E1-1C4CE4D0DCD3}">
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Ergebnisse.xlsx
+++ b/Ergebnisse.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/044f60d434003980/Desktop/Masterarbeit_V1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="13_ncr:1_{EFB7C5EC-FA35-4EF7-B41D-4FD74E019177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B7F91D6-1145-4A0A-AB5F-225DD566CCB1}"/>
+  <xr:revisionPtr revIDLastSave="313" documentId="13_ncr:1_{EFB7C5EC-FA35-4EF7-B41D-4FD74E019177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C52E04B-5B45-4AA8-B0B6-E02E885CE30F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{8BD8ECD7-0FEF-448D-8D74-18D5F6F6DC6B}"/>
+    <workbookView xWindow="0" yWindow="-16200" windowWidth="14400" windowHeight="15600" xr2:uid="{8BD8ECD7-0FEF-448D-8D74-18D5F6F6DC6B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Longlist" sheetId="9" r:id="rId1"/>
-    <sheet name="Shortlist" sheetId="1" r:id="rId2"/>
-    <sheet name="Allgemeine Angaben" sheetId="2" r:id="rId3"/>
-    <sheet name="Mindestangaben" sheetId="3" r:id="rId4"/>
-    <sheet name="Interne Nachhaltigkeitspunkte" sheetId="8" r:id="rId5"/>
-    <sheet name="Externe Nachhaltigkeitspunkte" sheetId="7" r:id="rId6"/>
-    <sheet name="Stakeholder" sheetId="4" r:id="rId7"/>
+    <sheet name="Übersicht" sheetId="11" r:id="rId1"/>
+    <sheet name="Longlist" sheetId="9" r:id="rId2"/>
+    <sheet name="Shortlist" sheetId="1" r:id="rId3"/>
+    <sheet name="Allgemeine Angaben" sheetId="2" r:id="rId4"/>
+    <sheet name="Mindestangaben" sheetId="3" r:id="rId5"/>
+    <sheet name="Interne Nachhaltigkeitspunkte" sheetId="8" r:id="rId6"/>
+    <sheet name="Externe Nachhaltigkeitspunkte" sheetId="7" r:id="rId7"/>
+    <sheet name="Stakeholder" sheetId="4" r:id="rId8"/>
+    <sheet name="Vorgehensweise WA (IRO-1)" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="109">
   <si>
     <t>Thema</t>
   </si>
@@ -225,9 +227,6 @@
   </si>
   <si>
     <t>Angabe der Änderungen der wesentlichen Auswirkungen, Risiken und Chancen im Vergleich zum vorangegangenen Berichtszeitraum</t>
-  </si>
-  <si>
-    <t>eine genaue Beschreibung der Auswirkungen, Risiken und Chancen, die unter die Angabepflichten des ESRS fallen, im Gegensatz zu den Auswirkungen, die von dem Unternehmen durch zusätzliche unternehmensspezifische Angaben abgedeckt werden</t>
   </si>
   <si>
     <t>Beschreibung</t>
@@ -336,13 +335,218 @@
   </si>
   <si>
     <t>Bewertet</t>
+  </si>
+  <si>
+    <t>Eine genaue Beschreibung der Auswirkungen, Risiken und Chancen, die unter die Angabepflichten des ESRS fallen, im Gegensatz zu den Auswirkungen, die von dem Unternehmen durch zusätzliche unternehmensspezifische Angaben abgedeckt werden</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Angabepflicht IRO-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Beschreibung des Verfahrens zur Ermittlung und Bewertung der wesentlichen Auswirkungen, Risiken und Chancen</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Das Unternehmen hat sein Verfahren zur Ermittlung seiner Auswirkungen, Risiken und Chancen und zur Bewertung ihrer Wesentlichkeit anzugeben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In dieser Excel werden die Ergebnisse der durchgeführten Wesentlichkeitsanalyse dargestellt. So werden Registerkarten, die für die ESRS Nachhaltigekeitsberichterstattung erarbeitete Informationen enthalten in grün dargstellt. 
+Informationen, die zur Berichterstattung genutzt werden können allerings primär für unternehmensinterne  Zwecke dient werden in gelb dargestellt. </t>
+  </si>
+  <si>
+    <t>Übersicht</t>
+  </si>
+  <si>
+    <t>Informationen zur Excel</t>
+  </si>
+  <si>
+    <t>Ablauf der Wesentlichkeitsanalyse:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Stakeholder Managament:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hinzufügen und Verwalten von Stakeholder. Hinzufügen von Eigenschaften, um das Stakeholder Ranking zu erstellen. 
+Dies kann als Orientierung zur Festlegung der Stakeholder Relvenaz genutzt werden.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Themenspezifische ESRS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Kein offiziell vorgegebener Schritt in der ESRS. Dient zur vorabauswahl von potenziell wesentlichen IROs anahnd der Themenfelder der themenspezifischen ESRS. Punkte, die hier als relevant markiert werden, werden später bewertet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. Interne Nachhatigkeitspunkte:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hier fügt das Unternehemen, welches die WA durchführt eigene potenzielle IROs hinzu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5. Exerne Nachhaltigkeitspunkte: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hier werden die potenziellen IROs, der in Schritt 2 ausgewählten Stakeholder hinzugefügt. Dabei wird den Stakeholder eine Excel-Datei zugeschickt, welche sowohl die IROs aus Schritt 4 der internen Untersuchung beinhalten als auch die Punkte der themenspzifischen ESRS. Zudem können Stakholder eigene IROs, die noch nihct abgedeckt sind hinzufügen. Es ist anzumerken das die Stakeholder die vollständige Liste der themenspezifische ESRS erhalten und nicht die vorsortierte aus Schritt 1. All diese Punkte werden zusätzlich anahnd von 4 Stufen von den Stakeholder bewerten. Werden die Excel Listen hochgeladen, werden diese in einer Liste vereint. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6. Bewertung der Longlist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hier befinden sich alle potnziellen IROs aus Schritt 3, 4 und 5. Die Bewertung erfolgt anahnd der auswirkungsbezogenen und der finaziellen Wesentlichkeit, wobei das Minimum für jede Wesentlichkeitsdimension der Wert 0 ist und das Maximum 1000.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7. Erstellung der Shortlist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hier werden alle bewerteten IROs in einer Wesentlichkeitsmatrix angezeigt. Das Unternehemn legt sowohl einen Schwellenwert für die Wesentlichkeit fest als auch für die Stakeholder Wichtigkeit. Punkte die eine der beiden Grenzen überschreiten gelten als wensetlich und werden in die SHortlist übernommen. Die Shortlist enthält alle wesentlichen IROs, die das Unternehmen im Rahmen der Wesentlichkeitsanalyse identifiziert hat.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Stakeholder Auswahl: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hier werden die Stakeholder ausgewählt, welche in die Bewertung mit aufgenommen werden sollen.
+Zudem werden "Stille Stakeholder" aussortiert.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,8 +562,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,8 +592,26 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -507,11 +745,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -552,6 +827,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,41 +848,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -708,6 +978,36 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -721,15 +1021,72 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5742940</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC9C6A7-F75C-B6FC-1F2C-BAA740BAA03E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="1619250"/>
+          <a:ext cx="5727065" cy="2294890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BFEBBE91-E19A-4EB6-B17A-4E7897839115}" name="Tabelle8" displayName="Tabelle8" ref="A1:E400" totalsRowShown="0">
   <autoFilter ref="A1:E400" xr:uid="{BFEBBE91-E19A-4EB6-B17A-4E7897839115}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5B295DE8-774D-41C0-B60D-796C32C38A6B}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{647234AC-2A55-4344-AD4A-68426CA397DA}" name="Thema" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{335767CA-70EE-41E3-ACC1-ED71A5C7EB22}" name="Unterthema" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{A5ECB99F-0526-4C8F-8DB7-89C826C6362C}" name="Unter-Unterthema" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{4F1928F7-B4FC-42C0-8C1C-F8A77A3A376B}" name="Bewertet" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5B295DE8-774D-41C0-B60D-796C32C38A6B}" name="ID" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{647234AC-2A55-4344-AD4A-68426CA397DA}" name="Thema" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{335767CA-70EE-41E3-ACC1-ED71A5C7EB22}" name="Unterthema" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{A5ECB99F-0526-4C8F-8DB7-89C826C6362C}" name="Unter-Unterthema" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{4F1928F7-B4FC-42C0-8C1C-F8A77A3A376B}" name="Bewertet" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -739,35 +1096,35 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0EAA9B70-2656-4F27-AABC-274E3FADFEE0}" name="Tabelle3" displayName="Tabelle3" ref="A1:E323" totalsRowShown="0">
   <autoFilter ref="A1:E323" xr:uid="{0EAA9B70-2656-4F27-AABC-274E3FADFEE0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0B695F56-587F-41F9-91D3-CCA8916BC1E1}" name="Thema" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{9460E50E-05FB-46DF-90D4-690FFB6C785B}" name="Unterthema" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{D8072684-13EE-402C-854B-ACFF74919084}" name="Unter-Unterthema" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{04B5FB97-4AD3-41B6-9F4E-185415DC292D}" name="Score Finanzen" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{F712CE96-8559-4F7C-BE45-73017908646F}" name="Score Auswirkung" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{0B695F56-587F-41F9-91D3-CCA8916BC1E1}" name="Thema" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{9460E50E-05FB-46DF-90D4-690FFB6C785B}" name="Unterthema" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{D8072684-13EE-402C-854B-ACFF74919084}" name="Unter-Unterthema" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{04B5FB97-4AD3-41B6-9F4E-185415DC292D}" name="Score Finanzen" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{F712CE96-8559-4F7C-BE45-73017908646F}" name="Score Auswirkung" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AFBF4C34-E7B0-4AFB-B0AC-42FFED279E07}" name="Tabelle2" displayName="Tabelle2" ref="A1:C30" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AFBF4C34-E7B0-4AFB-B0AC-42FFED279E07}" name="Tabelle2" displayName="Tabelle2" ref="A1:C30" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:C30" xr:uid="{AFBF4C34-E7B0-4AFB-B0AC-42FFED279E07}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1947EA98-358B-4AEE-A0D6-B76B065FCCEA}" name="Referenz" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{86D7F731-1EEA-4B47-BA1B-1B3672510553}" name="Beschreibung" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{6BCAE759-2D3A-4D5F-A51F-A586FBD357A6}" name="Antwort" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{1947EA98-358B-4AEE-A0D6-B76B065FCCEA}" name="Referenz" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{86D7F731-1EEA-4B47-BA1B-1B3672510553}" name="Beschreibung" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{6BCAE759-2D3A-4D5F-A51F-A586FBD357A6}" name="Antwort" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C3F6D296-244D-4616-BD3A-118063321640}" name="Tabelle5" displayName="Tabelle5" ref="A1:C11" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C3F6D296-244D-4616-BD3A-118063321640}" name="Tabelle5" displayName="Tabelle5" ref="A1:C11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="A1:C11" xr:uid="{C3F6D296-244D-4616-BD3A-118063321640}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{373ED837-40D0-44FE-BD8D-01D825D61F81}" name="Referenz" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{CC41686E-165A-4A7B-80B2-1DBE0F5DDFC0}" name="Beschreibung" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{33A78526-5CDD-4EAD-B5A0-3DC9FA63831E}" name="Antwort" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{373ED837-40D0-44FE-BD8D-01D825D61F81}" name="Referenz" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{CC41686E-165A-4A7B-80B2-1DBE0F5DDFC0}" name="Beschreibung" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{33A78526-5CDD-4EAD-B5A0-3DC9FA63831E}" name="Antwort" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -804,24 +1161,24 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E48A5E1D-1D42-4F41-847A-3BC300CA9EFD}" name="Tabelle1" displayName="Tabelle1" ref="A2:C50" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E48A5E1D-1D42-4F41-847A-3BC300CA9EFD}" name="Tabelle1" displayName="Tabelle1" ref="A2:C50" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A2:C50" xr:uid="{E48A5E1D-1D42-4F41-847A-3BC300CA9EFD}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F5920264-4D4E-41E5-B815-59D832F4D3F1}" name="Platzierung" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{F9BEF5DD-C415-4FF9-96FF-8B251ADC2F23}" name="Gruppe" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{872F002F-6728-4E23-91CE-84F32BEFC902}" name="Score" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{F5920264-4D4E-41E5-B815-59D832F4D3F1}" name="Platzierung" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{F9BEF5DD-C415-4FF9-96FF-8B251ADC2F23}" name="Gruppe" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{872F002F-6728-4E23-91CE-84F32BEFC902}" name="Score" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5B43F029-6526-4B29-9D27-DA6628DB89F7}" name="Tabelle6" displayName="Tabelle6" ref="E2:G50" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5B43F029-6526-4B29-9D27-DA6628DB89F7}" name="Tabelle6" displayName="Tabelle6" ref="E2:G50" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="E2:G50" xr:uid="{5B43F029-6526-4B29-9D27-DA6628DB89F7}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C41B1320-9A8C-4439-A4E5-B485D1DA20AD}" name="Platzierung" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{B99AF239-EC5A-4C10-937B-D44D28DDB9C7}" name="Gruppe" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{A9EF4F0C-FD31-4211-82CB-8AFA2D28CCA3}" name="Score" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{C41B1320-9A8C-4439-A4E5-B485D1DA20AD}" name="Platzierung" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B99AF239-EC5A-4C10-937B-D44D28DDB9C7}" name="Gruppe" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A9EF4F0C-FD31-4211-82CB-8AFA2D28CCA3}" name="Score" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1143,10 +1500,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDD50D9-F970-46FF-82EF-28B9B30347B4}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="138.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028AEEFC-E5DF-4357-98DB-65669D351EBB}">
+  <sheetPr>
+    <tabColor theme="6"/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1159,7 +1609,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1171,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1182,8 +1632,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F70B8C5-1495-4C99-9E8C-578225CA788B}">
+  <sheetPr>
+    <tabColor theme="6"/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1208,10 +1661,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1222,12 +1675,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4714BA4-6498-441B-84F4-0B00006560D3}">
+  <sheetPr>
+    <tabColor theme="6"/>
+  </sheetPr>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="115.90625" defaultRowHeight="70" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1243,10 +1699,10 @@
         <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
@@ -1478,7 +1934,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1489,8 +1945,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8168B3BB-38DF-4B0A-88C1-73A1946E372F}">
+  <sheetPr>
+    <tabColor theme="6"/>
+  </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1509,90 +1968,90 @@
         <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1603,8 +2062,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75C0EAA-1B7A-4CB2-BF33-996AC87C16EE}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1635,8 +2097,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8759344-6114-4ECC-8592-C429027BC1DA}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1658,7 +2123,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1670,19 +2135,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>90</v>
-      </c>
-      <c r="I1" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1693,12 +2158,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B62E8E-4A31-4997-B1E1-1C4CE4D0DCD3}">
+  <sheetPr>
+    <tabColor theme="6"/>
+  </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1711,37 +2179,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -2139,4 +2607,59 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116C85AD-6DE2-4741-9B78-A4EA19DDA291}">
+  <sheetPr>
+    <tabColor theme="6"/>
+  </sheetPr>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E12" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ergebnisse.xlsx
+++ b/Ergebnisse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/044f60d434003980/Desktop/Masterarbeit_V1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="313" documentId="13_ncr:1_{EFB7C5EC-FA35-4EF7-B41D-4FD74E019177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C52E04B-5B45-4AA8-B0B6-E02E885CE30F}"/>
+  <xr:revisionPtr revIDLastSave="399" documentId="13_ncr:1_{EFB7C5EC-FA35-4EF7-B41D-4FD74E019177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD3A2E74-CE48-4C3E-92BB-C52DA6954E50}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-16200" windowWidth="14400" windowHeight="15600" xr2:uid="{8BD8ECD7-0FEF-448D-8D74-18D5F6F6DC6B}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{8BD8ECD7-0FEF-448D-8D74-18D5F6F6DC6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
   <si>
     <t>Thema</t>
   </si>
@@ -368,9 +368,6 @@
   <si>
     <t xml:space="preserve">In dieser Excel werden die Ergebnisse der durchgeführten Wesentlichkeitsanalyse dargestellt. So werden Registerkarten, die für die ESRS Nachhaltigekeitsberichterstattung erarbeitete Informationen enthalten in grün dargstellt. 
 Informationen, die zur Berichterstattung genutzt werden können allerings primär für unternehmensinterne  Zwecke dient werden in gelb dargestellt. </t>
-  </si>
-  <si>
-    <t>Übersicht</t>
   </si>
   <si>
     <t>Informationen zur Excel</t>
@@ -412,29 +409,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3. Themenspezifische ESRS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Kein offiziell vorgegebener Schritt in der ESRS. Dient zur vorabauswahl von potenziell wesentlichen IROs anahnd der Themenfelder der themenspezifischen ESRS. Punkte, die hier als relevant markiert werden, werden später bewertet.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>4. Interne Nachhatigkeitspunkte:</t>
     </r>
     <r>
@@ -458,7 +432,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">5. Exerne Nachhaltigkeitspunkte: </t>
+      <t>2. Stakeholder Auswahl:</t>
     </r>
     <r>
       <rPr>
@@ -468,7 +442,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Hier werden die potenziellen IROs, der in Schritt 2 ausgewählten Stakeholder hinzugefügt. Dabei wird den Stakeholder eine Excel-Datei zugeschickt, welche sowohl die IROs aus Schritt 4 der internen Untersuchung beinhalten als auch die Punkte der themenspzifischen ESRS. Zudem können Stakholder eigene IROs, die noch nihct abgedeckt sind hinzufügen. Es ist anzumerken das die Stakeholder die vollständige Liste der themenspezifische ESRS erhalten und nicht die vorsortierte aus Schritt 1. All diese Punkte werden zusätzlich anahnd von 4 Stufen von den Stakeholder bewerten. Werden die Excel Listen hochgeladen, werden diese in einer Liste vereint. </t>
+      <t xml:space="preserve"> Hier werden die Stakeholder ausgewählt, welche in die Bewertung mit aufgenommen werden sollen.
+Zudem werden "Stille Stakeholder" aussortiert.</t>
     </r>
   </si>
   <si>
@@ -481,7 +456,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6. Bewertung der Longlist</t>
+      <t>3. Themenspezifische ESRS:</t>
     </r>
     <r>
       <rPr>
@@ -491,7 +466,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Hier befinden sich alle potnziellen IROs aus Schritt 3, 4 und 5. Die Bewertung erfolgt anahnd der auswirkungsbezogenen und der finaziellen Wesentlichkeit, wobei das Minimum für jede Wesentlichkeitsdimension der Wert 0 ist und das Maximum 1000.</t>
+      <t xml:space="preserve"> Kein offiziell vorgegebener Schritt in der ESRS. Dient zur vorabauswahl von potenziell wesentlichen IROs anahnd der Themenfelder der themenspezifischen ESRS. Punkte, die hier als relevant markiert werden, werden später bewertet.</t>
     </r>
   </si>
   <si>
@@ -504,7 +479,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7. Erstellung der Shortlist</t>
+      <t>5. Exerne Nachhaltigkeitspunkte:</t>
     </r>
     <r>
       <rPr>
@@ -514,7 +489,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Hier werden alle bewerteten IROs in einer Wesentlichkeitsmatrix angezeigt. Das Unternehemn legt sowohl einen Schwellenwert für die Wesentlichkeit fest als auch für die Stakeholder Wichtigkeit. Punkte die eine der beiden Grenzen überschreiten gelten als wensetlich und werden in die SHortlist übernommen. Die Shortlist enthält alle wesentlichen IROs, die das Unternehmen im Rahmen der Wesentlichkeitsanalyse identifiziert hat.</t>
+      <t xml:space="preserve"> Hier werden die potenziellen IROs, der in Schritt 2 ausgewählten Stakeholder hinzugefügt. Dabei wird den Stakeholder eine Excel-Datei zugeschickt, welche sowohl die IROs aus Schritt 4 der internen Untersuchung beinhalten als auch die Punkte der themenspzifischen ESRS. Zudem können Stakholder eigene IROs, die noch nihct abgedeckt sind hinzufügen. Es ist anzumerken das die Stakeholder die vollständige Liste der themenspezifische ESRS erhalten und nicht die vorsortierte aus Schritt 1. All diese Punkte werden zusätzlich anahnd von 4 Stufen von den Stakeholder bewerten. Werden die Excel Listen hochgeladen, werden diese in einer Liste vereint. </t>
     </r>
   </si>
   <si>
@@ -527,7 +502,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">2. Stakeholder Auswahl: </t>
+      <t>6. Bewertung der Longlist:</t>
     </r>
     <r>
       <rPr>
@@ -537,16 +512,65 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Hier werden die Stakeholder ausgewählt, welche in die Bewertung mit aufgenommen werden sollen.
-Zudem werden "Stille Stakeholder" aussortiert.</t>
+      <t xml:space="preserve"> Hier befinden sich alle potnziellen IROs aus Schritt 3, 4 und 5. Die Bewertung erfolgt anahnd der auswirkungsbezogenen und der finaziellen Wesentlichkeit, wobei das Minimum für jede Wesentlichkeitsdimension der Wert 0 ist und das Maximum 1000.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7. Erstellung der Shortlist:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hier werden alle bewerteten IROs in einer Wesentlichkeitsmatrix angezeigt. Das Unternehemn legt sowohl einen Schwellenwert für die Wesentlichkeit fest als auch für die Stakeholder Wichtigkeit. Punkte die eine der beiden Grenzen überschreiten gelten als wensetlich und werden in die SHortlist übernommen. Die Shortlist enthält alle wesentlichen IROs, die das Unternehmen im Rahmen der Wesentlichkeitsanalyse identifiziert hat.</t>
+    </r>
+  </si>
+  <si>
+    <t>Aktueller Bearbeitungsstand der Wesentlichkeitsanalyse</t>
+  </si>
+  <si>
+    <t>Themenspezifische ESRS:</t>
+  </si>
+  <si>
+    <t>Anzahl Punkte in der Longlist:</t>
+  </si>
+  <si>
+    <t>davon bewertet:</t>
+  </si>
+  <si>
+    <t>von</t>
+  </si>
+  <si>
+    <t>Es fehlen:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     Übersicht</t>
+  </si>
+  <si>
+    <t>Anzahl Punkte in der Shortlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">von </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +597,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -611,7 +643,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -746,14 +778,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -761,23 +811,85 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -786,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -830,6 +942,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,21 +970,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,7 +1173,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>5742940</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>94615</xdr:rowOff>
+      <xdr:rowOff>94614</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1504,85 +1643,317 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="138.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="27.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="B2" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.4">
+      <c r="A5" s="38" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="29">
+        <v>93</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="25" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="28" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="25" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="28" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" ht="76" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="25" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="28" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="25" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="28" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="27" t="s">
         <v>107</v>
       </c>
-    </row>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2179,17 +2550,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
@@ -2623,34 +2994,34 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" s="14"/>

--- a/Ergebnisse.xlsx
+++ b/Ergebnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/044f60d434003980/Desktop/Masterarbeit_V1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="399" documentId="13_ncr:1_{EFB7C5EC-FA35-4EF7-B41D-4FD74E019177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD3A2E74-CE48-4C3E-92BB-C52DA6954E50}"/>
+  <xr:revisionPtr revIDLastSave="400" documentId="13_ncr:1_{EFB7C5EC-FA35-4EF7-B41D-4FD74E019177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{696EBBFB-7FEE-4616-B5CA-3EAA9848EB20}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{8BD8ECD7-0FEF-448D-8D74-18D5F6F6DC6B}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="116">
   <si>
     <t>Thema</t>
   </si>
@@ -549,9 +549,6 @@
   </si>
   <si>
     <t>davon bewertet:</t>
-  </si>
-  <si>
-    <t>von</t>
   </si>
   <si>
     <t>Es fehlen:</t>
@@ -898,7 +895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -946,45 +943,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -994,20 +978,29 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1646,7 +1639,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1659,295 +1652,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
+      <c r="A1" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="30"/>
+      <c r="B3" s="18"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="30"/>
+      <c r="B5" s="18"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="30"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="30"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="30"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="30"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="30"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="29">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="4">
         <v>93</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="30"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="30"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="30"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="30"/>
+      <c r="B21" s="18"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="30"/>
+      <c r="B22" s="18"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="30"/>
+      <c r="B23" s="18"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="30"/>
+      <c r="B24" s="18"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" ht="76" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="30"/>
+      <c r="B25" s="18"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="30"/>
+      <c r="B26" s="18"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -2550,17 +2473,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
@@ -2994,34 +2917,34 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" s="14"/>
